--- a/doc/which_is_the_fastest.xlsx
+++ b/doc/which_is_the_fastest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taicsuzu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taicsuzu/Documents/workspace/hobby/crystal/which_is_the_fastest/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Rails</t>
     <phoneticPr fontId="1"/>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>Roda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mux</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -175,7 +179,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US">
+              <a:rPr lang="en-US" sz="1600">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -183,7 +187,7 @@
               <a:t>Ruby(</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US">
+              <a:rPr lang="en-US" sz="1600">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -191,7 +195,7 @@
               <a:t>Rails</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US">
+              <a:rPr lang="en-US" sz="1600">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -202,7 +206,7 @@
               <a:t>,</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0">
+              <a:rPr lang="en-US" sz="1600" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -213,7 +217,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US">
+              <a:rPr lang="en-US" sz="1600">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
@@ -221,7 +225,7 @@
               <a:t>Sinatra </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US">
+              <a:rPr lang="en-US" sz="1600">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -229,7 +233,7 @@
               <a:t>and</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US">
+              <a:rPr lang="en-US" sz="1600">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
@@ -237,7 +241,7 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US">
+              <a:rPr lang="en-US" sz="1600">
                 <a:solidFill>
                   <a:srgbClr val="7030A0"/>
                 </a:solidFill>
@@ -245,11 +249,11 @@
               <a:t>Roda</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>) vs Crystal(</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US">
+              <a:rPr lang="en-US" sz="1600">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -257,11 +261,11 @@
               <a:t>Kemal</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t> and </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US">
+              <a:rPr lang="en-US" sz="1600">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
@@ -269,26 +273,26 @@
               <a:t>route.cr</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>) vs</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
               <a:t> Go(</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0">
+              <a:rPr lang="en-US" sz="1600" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Echo</a:t>
+              <a:t>Echo and mux</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
               <a:t>)</a:t>
             </a:r>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="ja-JP" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1031,6 +1035,109 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>mux</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.958</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.423</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
@@ -1042,11 +1149,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-35"/>
-        <c:axId val="-2096307040"/>
-        <c:axId val="-2096303568"/>
+        <c:axId val="-2085929184"/>
+        <c:axId val="-2082284592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2096307040"/>
+        <c:axId val="-2085929184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,7 +1190,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096303568"/>
+        <c:crossAx val="-2082284592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1091,7 +1198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2096303568"/>
+        <c:axId val="-2082284592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,7 +1235,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096307040"/>
+        <c:crossAx val="-2085929184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1744,14 +1851,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>993595</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>69634</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>189950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>292495</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>68434</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>188750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2279,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -2425,6 +2532,26 @@
       </c>
       <c r="G7">
         <v>5.8719999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="D8">
+        <v>1.958</v>
+      </c>
+      <c r="E8">
+        <v>3.032</v>
+      </c>
+      <c r="F8">
+        <v>4.1559999999999997</v>
+      </c>
+      <c r="G8">
+        <v>5.423</v>
       </c>
     </row>
   </sheetData>

--- a/doc/which_is_the_fastest.xlsx
+++ b/doc/which_is_the_fastest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31860" windowHeight="20400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -331,7 +331,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.000341536785766589"/>
-                  <c:y val="6.33811470406614E-17"/>
+                  <c:y val="6.33811470406615E-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -351,7 +351,7 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.38634615252038E-5"/>
+                  <c:x val="-8.38634615252039E-5"/>
                   <c:y val="0.0"/>
                 </c:manualLayout>
               </c:layout>
@@ -471,7 +471,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -547,31 +546,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>38.313199</c:v>
+                  <c:v>40.300424</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.776124</c:v>
+                  <c:v>11.592707</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.050738</c:v>
+                  <c:v>4.579133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.260109</c:v>
+                  <c:v>0.940217</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.337423</c:v>
+                  <c:v>0.632436</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.113032</c:v>
+                  <c:v>1.11116</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.017241</c:v>
+                  <c:v>1.118885</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.846685</c:v>
+                  <c:v>0.800817</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.829558</c:v>
+                  <c:v>0.808041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,11 +587,11 @@
         </c:dLbls>
         <c:gapWidth val="269"/>
         <c:overlap val="-20"/>
-        <c:axId val="-2056903504"/>
-        <c:axId val="-2056991152"/>
+        <c:axId val="-2096740224"/>
+        <c:axId val="-2096760784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2056903504"/>
+        <c:axId val="-2096740224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,7 +631,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056991152"/>
+        <c:crossAx val="-2096760784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -640,7 +639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2056991152"/>
+        <c:axId val="-2096760784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -686,7 +685,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2056903504"/>
+        <c:crossAx val="-2096740224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1637,6 +1636,20 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Crystal</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
             </a:rPr>
@@ -1646,7 +1659,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>2. </a:t>
+            <a:t>3. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
@@ -1655,20 +1668,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>Go</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>3. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Crystal</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -1748,6 +1747,35 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>route.cr</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Kemal</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
             </a:rPr>
@@ -1757,7 +1785,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>2. </a:t>
+            <a:t>4. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
@@ -1771,7 +1799,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>3. </a:t>
+            <a:t>5. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
@@ -1785,7 +1813,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>4. </a:t>
+            <a:t>6. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
@@ -1794,34 +1822,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>Echo</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>5. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>route.cr</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>6. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Kemal</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -2143,7 +2143,7 @@
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -2161,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>38.313198999999997</v>
+        <v>40.300424</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -2169,7 +2169,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>10.776123999999999</v>
+        <v>11.592707000000001</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -2177,7 +2177,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>4.0507379999999999</v>
+        <v>4.5791329999999997</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.2601089999999999</v>
+        <v>0.94021699999999997</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -2196,7 +2196,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>1.337423</v>
+        <v>0.632436</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -2207,7 +2207,7 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>1.113032</v>
+        <v>1.1111599999999999</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -2215,7 +2215,7 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>1.0172410000000001</v>
+        <v>1.1188849999999999</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -2226,7 +2226,7 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>0.84668500000000002</v>
+        <v>0.800817</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -2234,7 +2234,7 @@
         <v>13</v>
       </c>
       <c r="D11">
-        <v>0.82955800000000002</v>
+        <v>0.80804100000000001</v>
       </c>
     </row>
   </sheetData>

--- a/doc/which_is_the_fastest.xlsx
+++ b/doc/which_is_the_fastest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31860" windowHeight="20400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
               <c:idx val="5"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.38634615252039E-5"/>
+                  <c:x val="-8.3863461525204E-5"/>
                   <c:y val="0.0"/>
                 </c:manualLayout>
               </c:layout>
@@ -587,11 +587,11 @@
         </c:dLbls>
         <c:gapWidth val="269"/>
         <c:overlap val="-20"/>
-        <c:axId val="-2096740224"/>
-        <c:axId val="-2096760784"/>
+        <c:axId val="-2112707328"/>
+        <c:axId val="-2112710672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2096740224"/>
+        <c:axId val="-2112707328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -631,7 +631,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096760784"/>
+        <c:crossAx val="-2112710672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -639,7 +639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2096760784"/>
+        <c:axId val="-2112710672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,7 +685,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2096740224"/>
+        <c:crossAx val="-2112707328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/doc/which_is_the_fastest.xlsx
+++ b/doc/which_is_the_fastest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="980" windowWidth="26140" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Kemal</t>
     <phoneticPr fontId="1"/>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>IRON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iris</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>node</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>express</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -175,8 +187,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0537525837651697"/>
-          <c:y val="0.931400771985381"/>
+          <c:x val="0.0523573841346513"/>
+          <c:y val="0.956614744803286"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -393,8 +405,8 @@
               <c:idx val="7"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.000131613047533048"/>
-                  <c:y val="-3.21244525769816E-17"/>
+                  <c:x val="-0.000821647731635942"/>
+                  <c:y val="-4.20228759273406E-17"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -414,10 +426,78 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.00251438048321326"/>
-                  <c:y val="-0.00172080515800032"/>
+                  <c:x val="0.000131613047533048"/>
+                  <c:y val="-3.21244525769816E-17"/>
                 </c:manualLayout>
               </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00251438048321326"/>
+                  <c:y val="0.00286360480304458"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00284934557664257"/>
+                  <c:y val="0.0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ja-JP"/>
+                </a:p>
+              </c:txPr>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -471,6 +551,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -490,9 +571,9 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$B$3:$C$11</c:f>
+              <c:f>Sheet1!$B$3:$C$13</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Ruby on Rails</c:v>
@@ -516,10 +597,16 @@
                     <c:v>gorilla/mux</c:v>
                   </c:pt>
                   <c:pt idx="7">
+                    <c:v>iris</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
                     <c:v>nickel.rs</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>IRON</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>express</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -532,8 +619,11 @@
                   <c:pt idx="5">
                     <c:v>Go</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>Rust</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>node</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -541,36 +631,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$11</c:f>
+              <c:f>Sheet1!$D$3:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>40.300424</c:v>
+                  <c:v>192.10874</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.592707</c:v>
+                  <c:v>55.327584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.579133</c:v>
+                  <c:v>20.341886</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.940217</c:v>
+                  <c:v>4.454839</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.632436</c:v>
+                  <c:v>3.103003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.11116</c:v>
+                  <c:v>5.363622</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.118885</c:v>
+                  <c:v>5.060837</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.800817</c:v>
+                  <c:v>4.8616</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.808041</c:v>
+                  <c:v>3.879741</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.082992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.573434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -587,11 +683,11 @@
         </c:dLbls>
         <c:gapWidth val="269"/>
         <c:overlap val="-20"/>
-        <c:axId val="-2112707328"/>
-        <c:axId val="-2112710672"/>
+        <c:axId val="-2115494656"/>
+        <c:axId val="-2115491312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112707328"/>
+        <c:axId val="-2115494656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +715,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
@@ -631,7 +727,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112710672"/>
+        <c:crossAx val="-2115491312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -639,7 +735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112710672"/>
+        <c:axId val="-2115491312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,7 +781,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112707328"/>
+        <c:crossAx val="-2115494656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1312,16 +1408,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>157743</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>442602</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>26068</xdr:rowOff>
+      <xdr:rowOff>121018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>239623</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>160421</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>524482</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>178036</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1340,190 +1436,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1106315</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>243450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3271537" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8999306" y="991207"/>
-          <a:ext cx="3271537" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>github.com/tbrand/which_is_the_fastest</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>682925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>107827</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>467263</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95847</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="右矢印 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="8566510" y="1617450"/>
-          <a:ext cx="2036791" cy="742831"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1078301</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>191698</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1590820" cy="374141"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8961886" y="1449717"/>
-          <a:ext cx="1590820" cy="374141"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Lower is Faster</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1575,12 +1487,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.55853</cdr:x>
-      <cdr:y>0.23205</cdr:y>
+      <cdr:x>0.29432</cdr:x>
+      <cdr:y>0.22348</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.69822</cdr:x>
-      <cdr:y>0.50071</cdr:y>
+      <cdr:x>0.57597</cdr:x>
+      <cdr:y>0.47944</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1589,8 +1501,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5078012" y="848554"/>
-          <a:ext cx="1270000" cy="982453"/>
+          <a:off x="2678986" y="1238213"/>
+          <a:ext cx="2563739" cy="1418151"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1604,7 +1516,7 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1612,29 +1524,29 @@
             <a:t>Ranking</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:t> of </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Lauguages</a:t>
+            <a:t>Lauguages (Runtimes)</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
@@ -1644,11 +1556,11 @@
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1658,11 +1570,11 @@
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
@@ -1672,20 +1584,38 @@
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
             <a:t>4. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>Ruby</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> node</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -1694,12 +1624,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.71272</cdr:x>
-      <cdr:y>0.23205</cdr:y>
+      <cdr:x>0.59276</cdr:x>
+      <cdr:y>0.22348</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.97233</cdr:x>
-      <cdr:y>0.74284</cdr:y>
+      <cdr:x>0.9176</cdr:x>
+      <cdr:y>0.71294</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1708,8 +1638,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6487466" y="840915"/>
-          <a:ext cx="2363074" cy="1851054"/>
+          <a:off x="5395529" y="1238213"/>
+          <a:ext cx="2956916" cy="2711890"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1723,7 +1653,7 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1731,7 +1661,7 @@
             <a:t>Ranking of Frameworks</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1741,11 +1671,11 @@
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
@@ -1755,26 +1685,42 @@
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t>2. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Kemal</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>nickel.rs</a:t>
+          </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1783,91 +1729,348 @@
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t>4. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>nickel.rs</a:t>
-          </a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Kemal</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t>5. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>gorilla/mux</a:t>
+            <a:t>iris</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t>6. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Echo</a:t>
+            <a:t>gorilla/mux</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t>7. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Roda</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Echo</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t>8. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Sinatra</a:t>
+            <a:t>Roda</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t>9. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>express</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>10. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
+            <a:t>Sinatra</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>11. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Ruby on Rails</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100">
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.34778</cdr:x>
+      <cdr:y>0.08866</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.70767</cdr:x>
+      <cdr:y>0.14739</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3165622" y="491205"/>
+          <a:ext cx="3275887" cy="325439"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>github.com/tbrand/which_is_the_fastest</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.29823</cdr:x>
+      <cdr:y>0.55013</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.51077</cdr:x>
+      <cdr:y>0.66367</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="ストライプ矢印 3"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
+          <a:off x="2714592" y="3048046"/>
+          <a:ext cx="1934675" cy="629066"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="stripedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.33343</cdr:x>
+      <cdr:y>0.50729</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.51077</cdr:x>
+      <cdr:y>0.58012</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3035060" y="2810664"/>
+          <a:ext cx="1614207" cy="403552"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Lower</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> is Faster</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.42862</cdr:x>
+      <cdr:y>0.1324</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.61509</cdr:x>
+      <cdr:y>0.17739</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3901510" y="733562"/>
+          <a:ext cx="1697290" cy="249252"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>open source benchmark</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -2140,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -2161,7 +2364,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>40.300424</v>
+        <v>192.10874000000001</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -2169,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>11.592707000000001</v>
+        <v>55.327584000000002</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -2177,7 +2380,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>4.5791329999999997</v>
+        <v>20.341885999999999</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -2188,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.94021699999999997</v>
+        <v>4.4548389999999998</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -2196,7 +2399,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>0.632436</v>
+        <v>3.1030030000000002</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -2207,7 +2410,7 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>1.1111599999999999</v>
+        <v>5.3636220000000003</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -2215,26 +2418,45 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>1.1188849999999999</v>
+        <v>5.0608370000000003</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>0.800817</v>
+        <v>4.8616000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
       <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>3.8797410000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D11">
-        <v>0.80804100000000001</v>
+      <c r="D12">
+        <v>4.082992</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>20.573433999999999</v>
       </c>
     </row>
   </sheetData>

--- a/doc/which_is_the_fastest.xlsx
+++ b/doc/which_is_the_fastest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="980" windowWidth="26140" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="26140" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>route.cr</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Go</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -94,6 +90,10 @@
   </si>
   <si>
     <t>express</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>router.cr</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -551,7 +551,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -588,7 +587,7 @@
                     <c:v>Kemal</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>route.cr</c:v>
+                    <c:v>router.cr</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>Echo</c:v>
@@ -683,11 +682,11 @@
         </c:dLbls>
         <c:gapWidth val="269"/>
         <c:overlap val="-20"/>
-        <c:axId val="-2115494656"/>
-        <c:axId val="-2115491312"/>
+        <c:axId val="-2139013008"/>
+        <c:axId val="-2139015968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2115494656"/>
+        <c:axId val="-2139013008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -727,7 +726,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115491312"/>
+        <c:crossAx val="-2139015968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -735,7 +734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115491312"/>
+        <c:axId val="-2139015968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +780,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115494656"/>
+        <c:crossAx val="-2139013008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1409,15 +1408,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>442602</xdr:colOff>
+      <xdr:colOff>110265</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>121018</xdr:rowOff>
+      <xdr:rowOff>61672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>524482</xdr:colOff>
+      <xdr:colOff>192145</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>178036</xdr:rowOff>
+      <xdr:rowOff>118690</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1680,7 +1679,7 @@
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>route.cr</a:t>
+            <a:t>router.cr</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -2346,14 +2345,14 @@
   <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -2396,7 +2395,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>3.1030030000000002</v>
@@ -2404,10 +2403,10 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
       </c>
       <c r="D8">
         <v>5.3636220000000003</v>
@@ -2415,7 +2414,7 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>5.0608370000000003</v>
@@ -2423,7 +2422,7 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>4.8616000000000001</v>
@@ -2431,10 +2430,10 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
       </c>
       <c r="D11">
         <v>3.8797410000000001</v>
@@ -2442,7 +2441,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>4.082992</v>
@@ -2450,10 +2449,10 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
       </c>
       <c r="D13">
         <v>20.573433999999999</v>

--- a/doc/which_is_the_fastest.xlsx
+++ b/doc/which_is_the_fastest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="26140" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Kemal</t>
     <phoneticPr fontId="1"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>iris</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>node</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -94,6 +90,18 @@
   </si>
   <si>
     <t>router.cr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fasthttprouter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Elixir</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Plug</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -511,6 +519,27 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00415253907331764"/>
+                  <c:y val="-0.00224977139134012"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
@@ -551,6 +580,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -570,9 +600,9 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$B$3:$C$13</c:f>
+              <c:f>Sheet1!$B$3:$C$14</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Ruby on Rails</c:v>
@@ -596,7 +626,7 @@
                     <c:v>gorilla/mux</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>iris</c:v>
+                    <c:v>fasthttprouter</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>nickel.rs</c:v>
@@ -606,6 +636,9 @@
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>express</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Plug</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -624,48 +657,54 @@
                   <c:pt idx="10">
                     <c:v>node</c:v>
                   </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Elixir</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$13</c:f>
+              <c:f>Sheet1!$D$3:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>192.10874</c:v>
+                  <c:v>198.794696</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.327584</c:v>
+                  <c:v>56.574554</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.341886</c:v>
+                  <c:v>20.77311</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.454839</c:v>
+                  <c:v>4.63318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.103003</c:v>
+                  <c:v>3.259693</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.363622</c:v>
+                  <c:v>5.503295</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.060837</c:v>
+                  <c:v>5.434254</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8616</c:v>
+                  <c:v>3.676596</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.879741</c:v>
+                  <c:v>4.086427</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.082992</c:v>
+                  <c:v>4.090768</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.573434</c:v>
+                  <c:v>20.576439</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.331628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -682,11 +721,11 @@
         </c:dLbls>
         <c:gapWidth val="269"/>
         <c:overlap val="-20"/>
-        <c:axId val="-2139013008"/>
-        <c:axId val="-2139015968"/>
+        <c:axId val="-2103339248"/>
+        <c:axId val="-2103342192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2139013008"/>
+        <c:axId val="-2103339248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,7 +765,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2139015968"/>
+        <c:crossAx val="-2103342192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -734,7 +773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139015968"/>
+        <c:axId val="-2103342192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -780,7 +819,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2139013008"/>
+        <c:crossAx val="-2103339248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1491,7 +1530,7 @@
     </cdr:from>
     <cdr:to>
       <cdr:x>0.57597</cdr:x>
-      <cdr:y>0.47944</cdr:y>
+      <cdr:y>0.51308</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1500,8 +1539,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2678986" y="1238213"/>
-          <a:ext cx="2563739" cy="1418151"/>
+          <a:off x="2674032" y="1281854"/>
+          <a:ext cx="2558919" cy="1661108"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1561,139 +1600,10 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Rust</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>3. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
             </a:rPr>
             <a:t>Go</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>4. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Ruby</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>5.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> node</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.59276</cdr:x>
-      <cdr:y>0.22348</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.9176</cdr:x>
-      <cdr:y>0.71294</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="6" name="テキスト ボックス 5"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5395529" y="1238213"/>
-          <a:ext cx="2956916" cy="2711890"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Ranking of Frameworks</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> (Middlewares)</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>1. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>router.cr</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>nickel.rs</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -1715,16 +1625,16 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
             <a:t>3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>IRON</a:t>
+            <a:t>Rust</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -1746,59 +1656,166 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>4. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Kemal</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> node</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
             <a:t>5. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>iris</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ruby</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>6. </a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Elixir</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.59276</cdr:x>
+      <cdr:y>0.22348</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9176</cdr:x>
+      <cdr:y>0.74349</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5385495" y="1281854"/>
+          <a:ext cx="2951320" cy="2982734"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ranking of Frameworks</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>gorilla/mux</a:t>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> (Middlewares)</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>7. </a:t>
+            <a:t>1. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>router.cr</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Echo</a:t>
+            <a:t>fasthttprouter</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>nickel.rs</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -1821,18 +1838,147 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>8. </a:t>
+            <a:t>4. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Roda</a:t>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IRON</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Kemal</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>6. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Echo</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>7. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>gorilla/mux</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>8. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>express</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t>9. </a:t>
@@ -1840,30 +1986,65 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>express</a:t>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Roda</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>10. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Sinatra</a:t>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Plug</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t>11. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sinatra</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>12. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
@@ -2342,10 +2523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="107" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="123" zoomScaleNormal="123" zoomScalePageLayoutView="123" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -2363,7 +2544,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>192.10874000000001</v>
+        <v>198.79469599999999</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -2371,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>55.327584000000002</v>
+        <v>56.574553999999999</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -2379,7 +2560,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>20.341885999999999</v>
+        <v>20.773109999999999</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -2390,15 +2571,15 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.4548389999999998</v>
+        <v>4.6331800000000003</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>3.1030030000000002</v>
+        <v>3.259693</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -2409,7 +2590,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5.3636220000000003</v>
+        <v>5.5032949999999996</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -2417,15 +2598,15 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>5.0608370000000003</v>
+        <v>5.4342540000000001</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>4.8616000000000001</v>
+        <v>3.676596</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -2436,7 +2617,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>3.8797410000000001</v>
+        <v>4.0864269999999996</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -2444,18 +2625,29 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>4.082992</v>
+        <v>4.0907679999999997</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
       <c r="D13">
-        <v>20.573433999999999</v>
+        <v>20.576439000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>21.331627999999998</v>
       </c>
     </row>
   </sheetData>

--- a/doc/which_is_the_fastest.xlsx
+++ b/doc/which_is_the_fastest.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Kemal</t>
     <phoneticPr fontId="1"/>
@@ -102,6 +102,26 @@
   </si>
   <si>
     <t>Plug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rocket</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Swift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vapor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Perfect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kitura</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -540,6 +560,90 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.000457842713368154"/>
+                  <c:y val="0.0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.000458280107887681"/>
+                  <c:y val="0.0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00122284572810991"/>
+                  <c:y val="-2.07393129682985E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00209840020767492"/>
+                  <c:y val="0.0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1">
@@ -600,9 +704,9 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$B$3:$C$14</c:f>
+              <c:f>Sheet1!$B$3:$C$18</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="16"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Ruby on Rails</c:v>
@@ -635,10 +739,22 @@
                     <c:v>IRON</c:v>
                   </c:pt>
                   <c:pt idx="10">
+                    <c:v>Rocket</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>express</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>Plug</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Vapor</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Perfect</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Kitura</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -654,11 +770,14 @@
                   <c:pt idx="8">
                     <c:v>Rust</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>node</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>Elixir</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Swift</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -666,45 +785,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$14</c:f>
+              <c:f>Sheet1!$D$3:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>198.794696</c:v>
+                  <c:v>194.492846</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.574554</c:v>
+                  <c:v>54.426645</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.77311</c:v>
+                  <c:v>21.341116</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.63318</c:v>
+                  <c:v>4.611196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.259693</c:v>
+                  <c:v>3.077231</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.503295</c:v>
+                  <c:v>5.480727</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.434254</c:v>
+                  <c:v>5.309696</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.676596</c:v>
+                  <c:v>3.644692</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.086427</c:v>
+                  <c:v>3.97154</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.090768</c:v>
+                  <c:v>3.949093</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.576439</c:v>
+                  <c:v>11.559089</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.331628</c:v>
+                  <c:v>20.626159</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.033695</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.265741</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.35325</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.247293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -721,11 +852,11 @@
         </c:dLbls>
         <c:gapWidth val="269"/>
         <c:overlap val="-20"/>
-        <c:axId val="-2103339248"/>
-        <c:axId val="-2103342192"/>
+        <c:axId val="2137131344"/>
+        <c:axId val="2137128528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2103339248"/>
+        <c:axId val="2137131344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,7 +896,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103342192"/>
+        <c:crossAx val="2137128528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -773,7 +904,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2103342192"/>
+        <c:axId val="2137128528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,7 +950,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103339248"/>
+        <c:crossAx val="2137131344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1447,15 +1578,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>110265</xdr:colOff>
+      <xdr:colOff>87383</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>61672</xdr:rowOff>
+      <xdr:rowOff>38788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>192145</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>118690</xdr:rowOff>
+      <xdr:colOff>169263</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>160180</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1525,12 +1656,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.29432</cdr:x>
-      <cdr:y>0.22348</cdr:y>
+      <cdr:x>0.37415</cdr:x>
+      <cdr:y>0.24918</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.57597</cdr:x>
-      <cdr:y>0.51308</cdr:y>
+      <cdr:x>0.6558</cdr:x>
+      <cdr:y>0.53878</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1539,8 +1670,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2674032" y="1281854"/>
-          <a:ext cx="2558919" cy="1661108"/>
+          <a:off x="3421037" y="1723744"/>
+          <a:ext cx="2575266" cy="2003340"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1666,156 +1797,18 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> node</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>5. </a:t>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Ruby</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>6.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Elixir</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.59276</cdr:x>
-      <cdr:y>0.22348</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.9176</cdr:x>
-      <cdr:y>0.74349</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="6" name="テキスト ボックス 5"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5385495" y="1281854"/>
-          <a:ext cx="2951320" cy="2982734"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Ranking of Frameworks</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> (Middlewares)</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>1. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>router.cr</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>fasthttprouter</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>3. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>nickel.rs</a:t>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Swift</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -1837,17 +1830,34 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>4. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IRON</a:t>
-          </a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Elixir</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1868,8 +1878,95 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> node</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>7. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ruby</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.66377</cdr:x>
+      <cdr:y>0.24903</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98861</cdr:x>
+      <cdr:y>0.80483</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6069223" y="1722665"/>
+          <a:ext cx="2970175" cy="3844853"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ranking of Frameworks</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> (Middlewares)</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>5. </a:t>
+            <a:t>1. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
@@ -1877,7 +1974,25 @@
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Kemal</a:t>
+            <a:t>router.cr</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>fasthttprouter</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -1900,30 +2015,17 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>6. </a:t>
+            <a:t>3. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Echo</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>7. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>gorilla/mux</a:t>
-          </a:r>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IRON</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1945,7 +2047,259 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>nickel.rs</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Kemal</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>6. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>gorilla/mux</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Echo</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>8. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Rocket</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Perfect</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Kitura</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Plug</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>12. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
@@ -1981,7 +2335,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>9. </a:t>
+            <a:t>13. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
@@ -2016,21 +2370,21 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>10. </a:t>
+            <a:t>14. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Plug</a:t>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Vapor</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>11. </a:t>
+            <a:t>15. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
@@ -2044,7 +2398,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t>12. </a:t>
+            <a:t>16. </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
@@ -2109,12 +2463,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.29823</cdr:x>
-      <cdr:y>0.55013</cdr:y>
+      <cdr:x>0.36956</cdr:x>
+      <cdr:y>0.67748</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.51077</cdr:x>
-      <cdr:y>0.66367</cdr:y>
+      <cdr:x>0.5821</cdr:x>
+      <cdr:y>0.79102</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2123,8 +2477,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="10800000">
-          <a:off x="2714592" y="3048046"/>
-          <a:ext cx="1934675" cy="629066"/>
+          <a:off x="3379028" y="4686575"/>
+          <a:ext cx="1943360" cy="785426"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="stripedRightArrow">
           <a:avLst/>
@@ -2163,12 +2517,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.33343</cdr:x>
-      <cdr:y>0.50729</cdr:y>
+      <cdr:x>0.41351</cdr:x>
+      <cdr:y>0.65284</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.51077</cdr:x>
-      <cdr:y>0.58012</cdr:y>
+      <cdr:x>0.59085</cdr:x>
+      <cdr:y>0.72567</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2177,8 +2531,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3035060" y="2810664"/>
-          <a:ext cx="1614207" cy="403552"/>
+          <a:off x="3780971" y="4516081"/>
+          <a:ext cx="1621508" cy="503809"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2249,6 +2603,511 @@
             <a:t>open source benchmark</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03924</cdr:x>
+      <cdr:y>0.07544</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.08304</cdr:x>
+      <cdr:y>0.10686</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="358835" y="521843"/>
+          <a:ext cx="400449" cy="217388"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>New!</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04059</cdr:x>
+      <cdr:y>0.12808</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.08439</cdr:x>
+      <cdr:y>0.15951</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="371160" y="886026"/>
+          <a:ext cx="400449" cy="217388"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>New!</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04059</cdr:x>
+      <cdr:y>0.18101</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.08439</cdr:x>
+      <cdr:y>0.21243</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="371161" y="1252152"/>
+          <a:ext cx="400449" cy="217388"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>New!</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0431</cdr:x>
+      <cdr:y>0.35137</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.08689</cdr:x>
+      <cdr:y>0.38279</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="394043" y="2430620"/>
+          <a:ext cx="400449" cy="217388"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>New!</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="800" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -2523,10 +3382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="123" zoomScaleNormal="123" zoomScalePageLayoutView="123" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18:M19"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" zoomScalePageLayoutView="111" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -2544,7 +3403,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>198.79469599999999</v>
+        <v>194.49284599999999</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -2552,7 +3411,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>56.574553999999999</v>
+        <v>54.426645000000001</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -2560,7 +3419,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>20.773109999999999</v>
+        <v>21.341116</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -2571,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.6331800000000003</v>
+        <v>4.6111959999999996</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -2579,7 +3438,7 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>3.259693</v>
+        <v>3.0772309999999998</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -2590,7 +3449,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5.5032949999999996</v>
+        <v>5.4807269999999999</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -2598,7 +3457,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>5.4342540000000001</v>
+        <v>5.3096959999999997</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -2606,7 +3465,7 @@
         <v>16</v>
       </c>
       <c r="D10">
-        <v>3.676596</v>
+        <v>3.644692</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -2617,7 +3476,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>4.0864269999999996</v>
+        <v>3.9715400000000001</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -2625,29 +3484,64 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>4.0907679999999997</v>
+        <v>3.949093</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>20.576439000000001</v>
+        <v>11.559089</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>20.626159000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D14">
-        <v>21.331627999999998</v>
+      <c r="D15">
+        <v>20.033695000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>39.265740999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>13.353249999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>19.247292999999999</v>
       </c>
     </row>
   </sheetData>
